--- a/docs/ST6/ST6_01.08.24_output.xlsx
+++ b/docs/ST6/ST6_01.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1463 +505,1731 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731504667.0840054</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731504667.283471</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731504667.0840054.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731504667.283471.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>290.69</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>290.44</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731504675.217349</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731504675.3848064</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731504675.217349.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731504675.3848064.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>289.6</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>289.61</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.009999999999990905</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731504690.2245815</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731504690.612057</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731504690.2245815.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731504690.612057.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>287.63</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>287.43</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.1999999999999886</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731504693.6820962</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731504693.7709234</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731504693.6820962.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731504693.7709234.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>134.32</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>134.15</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.1699999999999875</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731504714.9548416</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731504715.3301985</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731504714.9548416.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731504715.3301985.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>131.77</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>131.87</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731504725.8124866</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731504726.1052868</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731504725.8124866.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731504726.1052868.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6720</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>6729.5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>9.5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731504726.3600264</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731504726.6254988</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731504726.3600264.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731504726.6254988.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6716</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6722</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>6</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731504738.966039</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731504739.081209</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731504738.966039.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731504739.081209.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6694</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6697.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>3.5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731504743.4752991</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731504743.6349149</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731504743.4752991.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731504743.6349149.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>513.8</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>515.35</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>1.550000000000068</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731504760.6497781</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731504761.0538433</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731504760.6497781.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731504761.0538433.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>510.2</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>509.8</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.3999999999999773</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731504766.7679207</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731504766.9084651</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731504766.7679207.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731504766.9084651.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>505.25</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>505.75</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731504769.5821178</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731504770.289718</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731504769.5821178.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731504770.289718.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>233.13</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>234.3</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-1.170000000000016</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731504783.2633367</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731504783.708413</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731504783.2633367.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731504783.708413.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>233.44</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>233.63</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.1899999999999977</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731504784.2432609</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731504785.3643026</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731504784.2432609.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731504785.3643026.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>232.64</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>231.3</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-1.339999999999975</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731504790.2140646</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731504790.7440884</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731504790.2140646.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731504790.7440884.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>229.54</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>228.97</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.5699999999999932</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731504801.8953433</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731504802.1061597</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731504801.8953433.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731504802.1061597.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>1039.4</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>1038</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-1.400000000000091</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731504813.0470169</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731504813.2919974</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731504813.0470169.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731504813.2919974.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1031.4</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1031.6</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.1999999999998181</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731504820.0244594</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731504820.2128313</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731504820.0244594.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731504820.2128313.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>129.44</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>129.8</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.3600000000000136</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731504820.459903</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731504820.7244031</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731504820.459903.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731504820.7244031.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>129.32</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>129.38</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731504826.1298492</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731504826.432177</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731504826.1298492.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731504826.432177.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>129.26</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>129.3</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.04000000000002046</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731504830.8576484</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731504831.1406946</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731504830.8576484.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731504831.1406946.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>129.94</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>129.84</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731504833.4259005</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731504833.6298852</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731504833.4259005.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731504833.6298852.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>129.06</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>129.1</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.03999999999999204</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731504841.3907392</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731504841.6181474</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731504841.3907392.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731504841.6181474.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>128.4</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>128.3</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731504844.4270842</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731504844.5207803</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731504844.4270842.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731504844.5207803.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>167.6</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>167.12</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.4799999999999898</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731504857.8122127</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731504858.1223376</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731504857.8122127.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731504858.1223376.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>166.5</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>166.54</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.03999999999999204</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731504861.04681</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731504861.4855347</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731504861.04681.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731504861.4855347.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>165.5</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>165.28</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.2199999999999989</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731504861.584616</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731504861.746633</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731504861.584616.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731504861.746633.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>165.16</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>165.28</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731504882.90399</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731504883.790834</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731504882.90399.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731504883.790834.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>50.92</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>50.98</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.05999999999999517</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731504903.4527862</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731504904.0149906</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731504903.4527862.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731504904.0149906.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1416.8</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1416.8</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,2295 +2237,2718 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731504911.3471837</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731504911.5261765</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731504911.3471837.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731504911.5261765.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1413.4</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1415.4</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731504926.195587</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731504926.3976226</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731504926.195587.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731504926.3976226.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>61.34</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>61.3</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.04000000000000625</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731504940.153293</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731504940.8335652</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731504940.153293.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731504940.8335652.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>60.78</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>60.68</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.1000000000000014</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731504941.1823645</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731504941.2698822</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731504941.1823645.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731504941.2698822.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>60.59</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>60.61</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731504945.5400965</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731504945.5400965.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731504945.5400965.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>60.69</v>
       </c>
-      <c r="J36" t="n">
-        <v>60.69</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
+      <c r="L36" t="n">
+        <v>60.68</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731504945.9890676</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731504946.5395439</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/SELG1731504945.9890676.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/SELG1731504946.5395439.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>59.11</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>59.21</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.1000000000000014</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731504961.581149</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731504961.771847</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/SELG1731504961.581149.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/SELG1731504961.771847.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>58.01</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>58.26</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731504967.591799</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731504967.9080229</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/SELG1731504967.591799.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/SELG1731504967.9080229.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>57.1</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>57.05</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.05000000000000426</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731504985.4373097</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731504985.636415</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731504985.4373097.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731504985.636415.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>144.62</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>144.88</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731504992.8165476</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731504993.464417</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731504992.8165476.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731504993.464417.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>143.62</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>143.68</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731504994.2897403</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731504995.167165</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731504994.2897403.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731504995.167165.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>143.5</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>142.52</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.9799999999999898</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.6799999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731504995.3545582</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731504995.4667983</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731504995.3545582.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731504995.4667983.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>142.44</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>142.66</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731505002.6999881</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731505003.147472</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505002.6999881.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505003.147472.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>21.32</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>21.311</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.009000000000000341</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731505006.7428942</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731505007.4090333</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505006.7428942.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505007.4090333.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>21.191</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>21.217</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.0259999999999998</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731505013.9673934</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731505014.2328646</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505013.9673934.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505014.2328646.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>21.068</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>21.101</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.0329999999999977</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731505014.6388805</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731505014.79992</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505014.6388805.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505014.79992.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>21.034</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>21.052</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.01800000000000068</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731505018.455657</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731505018.7123458</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505018.455657.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505018.7123458.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>20.89</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>20.809</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.08099999999999952</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731505018.7591944</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731505018.8031135</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505018.7591944.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731505018.8031135.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>20.82</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>20.831</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.01099999999999923</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731505044.173408</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731505044.6018803</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731505044.173408.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731505044.6018803.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>677.65</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>677.55</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.1000000000000227</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731505050.677527</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731505051.1802669</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/FEES1731505050.677527.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/FEES1731505051.1802669.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>0.09998000000000001</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>0.0999</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>8.000000000001062e-05</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731505067.0956826</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731505067.3592582</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/FEES1731505067.0956826.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/FEES1731505067.3592582.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>0.09962000000000001</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>0.09966000000000001</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>3.999999999999837e-05</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731505076.693298</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731505077.1686096</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731505076.693298.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731505077.1686096.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>0.6028</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>0.6038</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.001000000000000001</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731505079.524156</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731505079.6002853</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731505079.524156.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731505079.6002853.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>0.605</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>0.6044</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.0005999999999999339</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731505087.4595761</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731505087.8236253</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731505087.4595761.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731505087.8236253.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>0.6077</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>0.607</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.0007000000000000339</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731505092.8071067</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731505093.4756734</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731505092.8071067.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731505093.4756734.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>0.6028</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>0.6025</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.000299999999999967</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731505094.9748101</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731505095.2178338</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731505094.9748101.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731505095.2178338.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>0.6002000000000001</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>0.6009</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.0006999999999999229</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731505103.1676614</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731505103.2486694</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505103.1676614.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505103.2486694.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>3025.35</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>3025.8</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.4500000000002728</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731505103.9260132</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731505104.0948613</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505103.9260132.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505104.0948613.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>3030.65</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>3030.75</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.09999999999990905</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731505105.6886709</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731505105.8140132</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505105.6886709.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505105.8140132.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>3029</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>3029.2</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.1999999999998181</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731505106.3748062</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731505106.424581</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505106.3748062.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505106.424581.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>3020.5</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>3023.4</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>2.900000000000091</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731505107.4074178</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731505107.644586</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505107.4074178.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505107.644586.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>3021.75</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>3019</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-2.75</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731505108.4595466</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731505108.5024903</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505108.4595466.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505108.5024903.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>3015.75</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>3019.45</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>3.699999999999818</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731505110.8331885</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731505111.093779</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505110.8331885.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505111.093779.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>3021.8</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>3024.25</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-2.449999999999818</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731505112.1205325</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731505112.1703086</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505112.1205325.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505112.1703086.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>3027.75</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>3026.4</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>1.349999999999909</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731505113.007717</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731505113.1043396</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505113.007717.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505113.1043396.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>3023</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>3023.5</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731505113.4771755</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731505113.6518798</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505113.4771755.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505113.6518798.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>3027.75</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>3025.65</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>2.099999999999909</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731505114.1398802</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731505114.270665</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505114.1398802.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505114.270665.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>3021.15</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>3021.3</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.1500000000000909</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731505115.1881154</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731505115.2993798</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505115.1881154.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505115.2993798.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>3012.35</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>3011.65</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.6999999999998181</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731505116.251014</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731505116.34471</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505116.251014.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505116.34471.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>3007.1</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>3007.9</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.8000000000001819</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731505117.0494108</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731505117.2416553</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505117.0494108.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505117.2416553.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>3004.15</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>3004.6</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.4499999999998181</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731505119.8690536</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731505119.9383492</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505119.8690536.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505119.9383492.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>3000.2</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>3000.55</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.3500000000003638</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731505120.1686845</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731505120.233101</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505120.1686845.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505120.233101.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>3003.45</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>3002.05</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>1.399999999999636</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731505121.2940137</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731505121.4950705</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505121.2940137.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505121.4950705.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>2997.45</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>2997.15</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.2999999999997272</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731505124.1058807</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731505124.2093363</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505124.1058807.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/MXI1731505124.2093363.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>2996.95</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>2996.65</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.2999999999997272</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731505127.1932406</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731505127.4509323</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731505127.1932406.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731505127.4509323.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>34.715</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>34.775</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.05999999999999517</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731505141.2764795</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731505141.3506556</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731505141.2764795.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731505141.3506556.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>34.935</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>34.79</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.1450000000000031</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731505145.210444</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731505145.6838026</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731505145.210444.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731505145.6838026.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>34.425</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>34.36</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-0.06499999999999773</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0.19</v>
       </c>
     </row>
   </sheetData>
@@ -4256,7 +4962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4285,6 +4991,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4301,6 +5017,12 @@
       <c r="D2" t="n">
         <v>0.4638888888889091</v>
       </c>
+      <c r="E2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -4317,6 +5039,12 @@
       <c r="D3" t="n">
         <v>0.08333333333333807</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -4333,6 +5061,12 @@
       <c r="D4" t="n">
         <v>-0.0003333333333337407</v>
       </c>
+      <c r="E4" t="n">
+        <v>-0.009999999999999939</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4349,6 +5083,12 @@
       <c r="D5" t="n">
         <v>0.0005399999999999849</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4365,6 +5105,12 @@
       <c r="D6" t="n">
         <v>0.08500000000000085</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4381,6 +5127,12 @@
       <c r="D7" t="n">
         <v>-0.1099999999999994</v>
       </c>
+      <c r="E7" t="n">
+        <v>-0.3099999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4397,6 +5149,12 @@
       <c r="D8" t="n">
         <v>-0.8174999999999955</v>
       </c>
+      <c r="E8" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.35</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4405,13 +5163,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.03999999999999915</v>
+        <v>-0.03000000000000114</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.009999999999999787</v>
+        <v>-0.007500000000000284</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.04000000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="10">
@@ -4429,6 +5193,12 @@
       <c r="D10" t="n">
         <v>0.5500000000000304</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4445,6 +5215,12 @@
       <c r="D11" t="n">
         <v>6.333333333333333</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4461,6 +5237,12 @@
       <c r="D12" t="n">
         <v>0.03333333333333144</v>
       </c>
+      <c r="E12" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4477,6 +5259,12 @@
       <c r="D13" t="n">
         <v>0.02000000000000076</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4493,6 +5281,12 @@
       <c r="D14" t="n">
         <v>0.04666666666666686</v>
       </c>
+      <c r="E14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -4509,6 +5303,12 @@
       <c r="D15" t="n">
         <v>6.000000000000449e-05</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4525,6 +5325,12 @@
       <c r="D16" t="n">
         <v>-0.6000000000001364</v>
       </c>
+      <c r="E16" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -4541,6 +5347,12 @@
       <c r="D17" t="n">
         <v>0.1349999999999909</v>
       </c>
+      <c r="E17" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4557,6 +5369,12 @@
       <c r="D18" t="n">
         <v>1</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -4573,6 +5391,12 @@
       <c r="D19" t="n">
         <v>-0.05999999999999517</v>
       </c>
+      <c r="E19" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -4589,6 +5413,12 @@
       <c r="D20" t="n">
         <v>-0.1000000000000227</v>
       </c>
+      <c r="E20" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4603,6 +5433,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
